--- a/data/pca/factorExposure/factorExposure_2018-12-19.xlsx
+++ b/data/pca/factorExposure/factorExposure_2018-12-19.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="108">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="111" uniqueCount="111">
   <si>
     <t>factor1</t>
   </si>
@@ -29,6 +29,15 @@
   </si>
   <si>
     <t>factor5</t>
+  </si>
+  <si>
+    <t>factor6</t>
+  </si>
+  <si>
+    <t>factor7</t>
+  </si>
+  <si>
+    <t>factor8</t>
   </si>
   <si>
     <t>Constellation software inc/can</t>
@@ -695,13 +704,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F104"/>
+  <dimension ref="A1:I104"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -717,70 +726,106 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="s">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="B2">
-        <v>-0.08720479443411724</v>
+        <v>0.05680091271377168</v>
       </c>
       <c r="C2">
-        <v>0.04892282254489249</v>
+        <v>-0.001996393596882986</v>
       </c>
       <c r="D2">
-        <v>-0.06460056406220191</v>
+        <v>0.03468165707088042</v>
       </c>
       <c r="E2">
-        <v>0.01223418236103382</v>
+        <v>0.03467990119060715</v>
       </c>
       <c r="F2">
-        <v>0.1197903410489456</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6">
+        <v>0.1170052293396597</v>
+      </c>
+      <c r="G2">
+        <v>0.05296550939305571</v>
+      </c>
+      <c r="H2">
+        <v>0.06545309188554665</v>
+      </c>
+      <c r="I2">
+        <v>0.1154882037465643</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="B3">
-        <v>-0.1884800659235845</v>
+        <v>0.1388547659437269</v>
       </c>
       <c r="C3">
-        <v>-0.06607248101775048</v>
+        <v>-0.04762674575761641</v>
       </c>
       <c r="D3">
-        <v>-0.1526196436239443</v>
+        <v>0.06903124449495938</v>
       </c>
       <c r="E3">
-        <v>-0.03264710575553502</v>
+        <v>-0.03267620011066408</v>
       </c>
       <c r="F3">
-        <v>0.3952333968609043</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6">
+        <v>0.3910683317448285</v>
+      </c>
+      <c r="G3">
+        <v>0.2708908476609457</v>
+      </c>
+      <c r="H3">
+        <v>0.1107292958941781</v>
+      </c>
+      <c r="I3">
+        <v>0.409896562219608</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9">
       <c r="A4" s="1" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="B4">
-        <v>-0.0800433238945631</v>
+        <v>0.06299890335719568</v>
       </c>
       <c r="C4">
-        <v>0.01264630258584531</v>
+        <v>-0.03666547090540554</v>
       </c>
       <c r="D4">
-        <v>-0.06593319460137519</v>
+        <v>0.02953101150153352</v>
       </c>
       <c r="E4">
-        <v>-0.03461559713078439</v>
+        <v>0.03865538619022911</v>
       </c>
       <c r="F4">
-        <v>0.07458477161759083</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6">
+        <v>0.07906537274958364</v>
+      </c>
+      <c r="G4">
+        <v>0.01739542052985273</v>
+      </c>
+      <c r="H4">
+        <v>0.04634388793048357</v>
+      </c>
+      <c r="I4">
+        <v>0.06609981598025143</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9">
       <c r="A5" s="1" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -797,190 +842,280 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6">
+      <c r="G5">
+        <v>0</v>
+      </c>
+      <c r="H5">
+        <v>0</v>
+      </c>
+      <c r="I5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="B6">
-        <v>-0.0004856682480720323</v>
+        <v>0.02734710269889364</v>
       </c>
       <c r="C6">
-        <v>-0.001557571298823875</v>
+        <v>-0.01143666874447734</v>
       </c>
       <c r="D6">
-        <v>0.001173884665112842</v>
+        <v>0.01020761073138667</v>
       </c>
       <c r="E6">
-        <v>0.001464607192004267</v>
+        <v>0.007639431385225977</v>
       </c>
       <c r="F6">
-        <v>-0.0009249262453426694</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6">
+        <v>0.009611521584408379</v>
+      </c>
+      <c r="G6">
+        <v>-0.02102927816398959</v>
+      </c>
+      <c r="H6">
+        <v>-0.01555996831326629</v>
+      </c>
+      <c r="I6">
+        <v>0.004929883005371792</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9">
       <c r="A7" s="1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="B7">
-        <v>-0.03790719405953637</v>
+        <v>0.03178158383184074</v>
       </c>
       <c r="C7">
-        <v>0.01744158407231408</v>
+        <v>-0.0379284850021664</v>
       </c>
       <c r="D7">
-        <v>-0.04589480762503762</v>
+        <v>-0.00601212042404528</v>
       </c>
       <c r="E7">
-        <v>0.00198614208632687</v>
+        <v>0.02704065269390583</v>
       </c>
       <c r="F7">
-        <v>0.07875606808989301</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6">
+        <v>0.05289489350028104</v>
+      </c>
+      <c r="G7">
+        <v>0.04824224497312361</v>
+      </c>
+      <c r="H7">
+        <v>0.008320083213947779</v>
+      </c>
+      <c r="I7">
+        <v>0.0361859592979944</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
       <c r="A8" s="1" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="B8">
-        <v>-0.03889153799823691</v>
+        <v>0.01800252927154517</v>
       </c>
       <c r="C8">
-        <v>-0.01127128239534949</v>
+        <v>-0.0339134912427757</v>
       </c>
       <c r="D8">
-        <v>-0.0589913276343539</v>
+        <v>0.03136323116508892</v>
       </c>
       <c r="E8">
-        <v>-0.03498102717627065</v>
+        <v>0.0145390940190311</v>
       </c>
       <c r="F8">
-        <v>0.07140960975884537</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6">
+        <v>0.07328895444096285</v>
+      </c>
+      <c r="G8">
+        <v>0.04104843355380527</v>
+      </c>
+      <c r="H8">
+        <v>0.03939137811532911</v>
+      </c>
+      <c r="I8">
+        <v>0.06219679847451697</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9">
       <c r="A9" s="1" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B9">
-        <v>-0.0667759874094246</v>
+        <v>0.05309433726342132</v>
       </c>
       <c r="C9">
-        <v>0.01985784605471538</v>
+        <v>-0.03516311313407903</v>
       </c>
       <c r="D9">
-        <v>-0.06093637291927348</v>
+        <v>0.02262046716677242</v>
       </c>
       <c r="E9">
-        <v>-0.04922111835334077</v>
+        <v>0.03395065733470178</v>
       </c>
       <c r="F9">
-        <v>0.06045714749528572</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6">
+        <v>0.08127528815944676</v>
+      </c>
+      <c r="G9">
+        <v>0.01501371703817752</v>
+      </c>
+      <c r="H9">
+        <v>0.04598333533939016</v>
+      </c>
+      <c r="I9">
+        <v>0.03921415358010894</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9">
       <c r="A10" s="1" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="B10">
-        <v>-0.03984641763083863</v>
+        <v>0.05256205798989348</v>
       </c>
       <c r="C10">
-        <v>0.07784829944769833</v>
+        <v>0.1001396673095403</v>
       </c>
       <c r="D10">
-        <v>0.1319653818897117</v>
+        <v>-0.1294469246769478</v>
       </c>
       <c r="E10">
-        <v>0.05460859819067193</v>
+        <v>-0.03853543793865191</v>
       </c>
       <c r="F10">
-        <v>0.06928963847198209</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6">
+        <v>0.05390116745585761</v>
+      </c>
+      <c r="G10">
+        <v>0.01881045687195636</v>
+      </c>
+      <c r="H10">
+        <v>0.03535948257610056</v>
+      </c>
+      <c r="I10">
+        <v>0.03806839272188531</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9">
       <c r="A11" s="1" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="B11">
-        <v>-0.05096454199984188</v>
+        <v>0.04361340080925412</v>
       </c>
       <c r="C11">
-        <v>-0.001102075848875077</v>
+        <v>-0.01362401954009879</v>
       </c>
       <c r="D11">
-        <v>-0.02653400876149958</v>
+        <v>0.03136460892164426</v>
       </c>
       <c r="E11">
-        <v>0.001596069391120024</v>
+        <v>0.008759059266554655</v>
       </c>
       <c r="F11">
-        <v>0.04920588386347833</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6">
+        <v>0.03899591267443239</v>
+      </c>
+      <c r="G11">
+        <v>-0.003157753654090936</v>
+      </c>
+      <c r="H11">
+        <v>0.01345404943977241</v>
+      </c>
+      <c r="I11">
+        <v>0.03399649472101871</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B12">
-        <v>-0.04201090626073683</v>
+        <v>0.04090534827582145</v>
       </c>
       <c r="C12">
-        <v>-0.001952970138062233</v>
+        <v>-0.02394280234851607</v>
       </c>
       <c r="D12">
-        <v>-0.0287595619022345</v>
+        <v>0.02398031016330094</v>
       </c>
       <c r="E12">
-        <v>-0.01840209778152821</v>
+        <v>0.01180594584804165</v>
       </c>
       <c r="F12">
-        <v>0.03971036150809543</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6">
+        <v>0.01732523734348118</v>
+      </c>
+      <c r="G12">
+        <v>0.004058688896651213</v>
+      </c>
+      <c r="H12">
+        <v>0.006822844715503993</v>
+      </c>
+      <c r="I12">
+        <v>0.02390848817788454</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9">
       <c r="A13" s="1" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="B13">
-        <v>-0.04906616622741466</v>
+        <v>0.0376134406477626</v>
       </c>
       <c r="C13">
-        <v>0.003234573389276602</v>
+        <v>-0.000395674656312697</v>
       </c>
       <c r="D13">
-        <v>-0.04089269382761607</v>
+        <v>0.02886812438066294</v>
       </c>
       <c r="E13">
-        <v>0.02379436687113666</v>
+        <v>0.007377316985780305</v>
       </c>
       <c r="F13">
-        <v>0.1126845915490955</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6">
+        <v>0.09596093804678962</v>
+      </c>
+      <c r="G13">
+        <v>0.03065249276740744</v>
+      </c>
+      <c r="H13">
+        <v>0.0381548583320595</v>
+      </c>
+      <c r="I13">
+        <v>0.07689714851914678</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9">
       <c r="A14" s="1" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="B14">
-        <v>-0.02518315199498861</v>
+        <v>0.0211944289874686</v>
       </c>
       <c r="C14">
-        <v>0.01289120673960571</v>
+        <v>-0.01515137522579682</v>
       </c>
       <c r="D14">
-        <v>-0.04353425472201675</v>
+        <v>0.01274550592673337</v>
       </c>
       <c r="E14">
-        <v>-0.008112223396665914</v>
+        <v>0.02795380646572396</v>
       </c>
       <c r="F14">
-        <v>0.03078008335521454</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6">
+        <v>0.03927298827911341</v>
+      </c>
+      <c r="G14">
+        <v>0.05177051115341839</v>
+      </c>
+      <c r="H14">
+        <v>0.02425176105176298</v>
+      </c>
+      <c r="I14">
+        <v>0.0174160968068349</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9">
       <c r="A15" s="1" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -997,30 +1132,48 @@
       <c r="F15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:6">
+      <c r="G15">
+        <v>0</v>
+      </c>
+      <c r="H15">
+        <v>0</v>
+      </c>
+      <c r="I15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9">
       <c r="A16" s="1" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="B16">
-        <v>-0.04122244253483678</v>
+        <v>0.03688736628639636</v>
       </c>
       <c r="C16">
-        <v>-0.007963826033304172</v>
+        <v>-0.01865495629612417</v>
       </c>
       <c r="D16">
-        <v>-0.02552939004727644</v>
+        <v>0.02843961545984473</v>
       </c>
       <c r="E16">
-        <v>-0.004115010869202365</v>
+        <v>0.006554990494314882</v>
       </c>
       <c r="F16">
-        <v>0.03986878976120688</v>
-      </c>
-    </row>
-    <row r="17" spans="1:6">
+        <v>0.03473873603645128</v>
+      </c>
+      <c r="G16">
+        <v>0.004132077707296729</v>
+      </c>
+      <c r="H16">
+        <v>0.007060071368163025</v>
+      </c>
+      <c r="I16">
+        <v>0.03482170140975112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9">
       <c r="A17" s="1" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -1037,10 +1190,19 @@
       <c r="F17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:6">
+      <c r="G17">
+        <v>0</v>
+      </c>
+      <c r="H17">
+        <v>0</v>
+      </c>
+      <c r="I17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9">
       <c r="A18" s="1" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -1057,70 +1219,106 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6">
+      <c r="G18">
+        <v>0</v>
+      </c>
+      <c r="H18">
+        <v>0</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="B19">
-        <v>-0.06023610371196696</v>
+        <v>0.04671323909749491</v>
       </c>
       <c r="C19">
-        <v>-0.0162513868280508</v>
+        <v>-0.02173034980978524</v>
       </c>
       <c r="D19">
-        <v>-0.04941295478886842</v>
+        <v>0.0396264026940833</v>
       </c>
       <c r="E19">
-        <v>-0.00407769461886007</v>
+        <v>0.01415601442646118</v>
       </c>
       <c r="F19">
-        <v>0.1010298255160437</v>
-      </c>
-    </row>
-    <row r="20" spans="1:6">
+        <v>0.09471319084115386</v>
+      </c>
+      <c r="G19">
+        <v>0.04849115218523655</v>
+      </c>
+      <c r="H19">
+        <v>0.02759970408473336</v>
+      </c>
+      <c r="I19">
+        <v>0.08306997724805802</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9">
       <c r="A20" s="1" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="B20">
-        <v>-0.02110931297898072</v>
+        <v>0.01372732271101874</v>
       </c>
       <c r="C20">
-        <v>0.008533300047179915</v>
+        <v>-0.01581606449558156</v>
       </c>
       <c r="D20">
-        <v>-0.04872836161594491</v>
+        <v>0.01563661252692865</v>
       </c>
       <c r="E20">
-        <v>-0.02324201642442429</v>
+        <v>0.0188374290186381</v>
       </c>
       <c r="F20">
-        <v>0.0694701103668431</v>
-      </c>
-    </row>
-    <row r="21" spans="1:6">
+        <v>0.06120480037129444</v>
+      </c>
+      <c r="G20">
+        <v>0.06065057497002643</v>
+      </c>
+      <c r="H20">
+        <v>0.01708403227137758</v>
+      </c>
+      <c r="I20">
+        <v>0.06893364615700813</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9">
       <c r="A21" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B21">
-        <v>-0.02437428065504686</v>
+        <v>0.02845510641023825</v>
       </c>
       <c r="C21">
-        <v>-0.01584487680772134</v>
+        <v>-0.02206760603608061</v>
       </c>
       <c r="D21">
-        <v>-0.03585343812180153</v>
+        <v>0.01444744199256642</v>
       </c>
       <c r="E21">
-        <v>0.003894511643191803</v>
+        <v>0.00200131891712288</v>
       </c>
       <c r="F21">
-        <v>0.09657512157124172</v>
-      </c>
-    </row>
-    <row r="22" spans="1:6">
+        <v>0.07353601575784922</v>
+      </c>
+      <c r="G21">
+        <v>0.004905703605787507</v>
+      </c>
+      <c r="H21">
+        <v>0.05137152963699286</v>
+      </c>
+      <c r="I21">
+        <v>0.008548348831198687</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="B22">
         <v>0</v>
@@ -1137,10 +1335,19 @@
       <c r="F22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:6">
+      <c r="G22">
+        <v>0</v>
+      </c>
+      <c r="H22">
+        <v>0</v>
+      </c>
+      <c r="I22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="B23">
         <v>0</v>
@@ -1157,230 +1364,338 @@
       <c r="F23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:6">
+      <c r="G23">
+        <v>0</v>
+      </c>
+      <c r="H23">
+        <v>0</v>
+      </c>
+      <c r="I23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="B24">
-        <v>-0.04095487196556639</v>
+        <v>0.03601606330971684</v>
       </c>
       <c r="C24">
-        <v>-0.003508716571382357</v>
+        <v>-0.01615738942274268</v>
       </c>
       <c r="D24">
-        <v>-0.02621840259379894</v>
+        <v>0.02440725423247525</v>
       </c>
       <c r="E24">
-        <v>-0.006454494526512947</v>
+        <v>0.00819127697194476</v>
       </c>
       <c r="F24">
-        <v>0.04904686859541896</v>
-      </c>
-    </row>
-    <row r="25" spans="1:6">
+        <v>0.03738161768620313</v>
+      </c>
+      <c r="G24">
+        <v>-0.0005600320476037802</v>
+      </c>
+      <c r="H24">
+        <v>0.008407936270708622</v>
+      </c>
+      <c r="I24">
+        <v>0.03581353358744019</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9">
       <c r="A25" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="B25">
-        <v>-0.04289964345631556</v>
+        <v>0.04359223633148995</v>
       </c>
       <c r="C25">
-        <v>0.0003558575957629544</v>
+        <v>-0.01369712959613982</v>
       </c>
       <c r="D25">
-        <v>-0.02428853526062298</v>
+        <v>0.02248006787286034</v>
       </c>
       <c r="E25">
-        <v>-0.006902331482542575</v>
+        <v>0.009192681243522982</v>
       </c>
       <c r="F25">
-        <v>0.04775627599484928</v>
-      </c>
-    </row>
-    <row r="26" spans="1:6">
+        <v>0.04544324995689406</v>
+      </c>
+      <c r="G25">
+        <v>-0.009014424344817275</v>
+      </c>
+      <c r="H25">
+        <v>0.01292112911471635</v>
+      </c>
+      <c r="I25">
+        <v>0.02879408221779413</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9">
       <c r="A26" s="1" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="B26">
-        <v>-0.02068535280923068</v>
+        <v>0.01249832008770858</v>
       </c>
       <c r="C26">
-        <v>-0.009689456791564492</v>
+        <v>-0.0107978182680697</v>
       </c>
       <c r="D26">
-        <v>-0.04701434716702953</v>
+        <v>0.02523147973222647</v>
       </c>
       <c r="E26">
-        <v>0.01439625345544043</v>
+        <v>0.001014290591162107</v>
       </c>
       <c r="F26">
-        <v>0.0420221178651696</v>
-      </c>
-    </row>
-    <row r="27" spans="1:6">
+        <v>0.04734623777073275</v>
+      </c>
+      <c r="G26">
+        <v>0.02878631094134973</v>
+      </c>
+      <c r="H26">
+        <v>0.01362388902324965</v>
+      </c>
+      <c r="I26">
+        <v>0.03554040325452375</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9">
       <c r="A27" s="1" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="B27">
-        <v>-0.1058541771634822</v>
+        <v>0.06153040480032063</v>
       </c>
       <c r="C27">
-        <v>0.02505766069133659</v>
+        <v>-0.01393450315382168</v>
       </c>
       <c r="D27">
-        <v>-0.04805379300759751</v>
+        <v>0.01585123702902417</v>
       </c>
       <c r="E27">
-        <v>-0.02883477878680294</v>
+        <v>0.02655134778422407</v>
       </c>
       <c r="F27">
-        <v>0.06145626180375655</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6">
+        <v>0.04861460606915104</v>
+      </c>
+      <c r="G27">
+        <v>0.03121569614611796</v>
+      </c>
+      <c r="H27">
+        <v>0.02702273462128557</v>
+      </c>
+      <c r="I27">
+        <v>0.02336528621410471</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9">
       <c r="A28" s="1" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="B28">
-        <v>-0.05144005209062573</v>
+        <v>0.0742667594169612</v>
       </c>
       <c r="C28">
-        <v>0.1043333836082363</v>
+        <v>0.1421451497750604</v>
       </c>
       <c r="D28">
-        <v>0.216525406150749</v>
+        <v>-0.1986992269127948</v>
       </c>
       <c r="E28">
-        <v>0.0659884394759824</v>
+        <v>-0.0566158155888493</v>
       </c>
       <c r="F28">
-        <v>0.03902913442940362</v>
-      </c>
-    </row>
-    <row r="29" spans="1:6">
+        <v>0.03230581986938456</v>
+      </c>
+      <c r="G28">
+        <v>0.04028759840585468</v>
+      </c>
+      <c r="H28">
+        <v>0.0331738289503836</v>
+      </c>
+      <c r="I28">
+        <v>0.06184702599203992</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9">
       <c r="A29" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="B29">
-        <v>-0.02712475459280383</v>
+        <v>0.02175476466241619</v>
       </c>
       <c r="C29">
-        <v>0.01178750566625664</v>
+        <v>-0.01871683150146309</v>
       </c>
       <c r="D29">
-        <v>-0.04462965166571766</v>
+        <v>0.01257339104220204</v>
       </c>
       <c r="E29">
-        <v>-0.02073613691266391</v>
+        <v>0.03061501019391338</v>
       </c>
       <c r="F29">
-        <v>0.02662540837416082</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6">
+        <v>0.03651113023861005</v>
+      </c>
+      <c r="G29">
+        <v>0.05414901537845702</v>
+      </c>
+      <c r="H29">
+        <v>0.03020372827584716</v>
+      </c>
+      <c r="I29">
+        <v>0.002976030824852699</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9">
       <c r="A30" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="B30">
-        <v>-0.1011229144775017</v>
+        <v>0.08408581397105176</v>
       </c>
       <c r="C30">
-        <v>0.02938506026064351</v>
+        <v>0.00479568332240275</v>
       </c>
       <c r="D30">
-        <v>-0.06458361949254206</v>
+        <v>0.06613658600715744</v>
       </c>
       <c r="E30">
-        <v>-0.003144333969810158</v>
+        <v>0.03431243885641483</v>
       </c>
       <c r="F30">
-        <v>0.1102805920439818</v>
-      </c>
-    </row>
-    <row r="31" spans="1:6">
+        <v>0.1029937327255341</v>
+      </c>
+      <c r="G30">
+        <v>0.01535860110170489</v>
+      </c>
+      <c r="H30">
+        <v>-0.003239921643090806</v>
+      </c>
+      <c r="I30">
+        <v>0.02263007696334687</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9">
       <c r="A31" s="1" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B31">
-        <v>-0.06073849132611675</v>
+        <v>0.05640912511236031</v>
       </c>
       <c r="C31">
-        <v>0.01211284497405067</v>
+        <v>-0.003689053715963545</v>
       </c>
       <c r="D31">
-        <v>-0.03591831312383943</v>
+        <v>0.02105632639100131</v>
       </c>
       <c r="E31">
-        <v>0.03101461195966502</v>
+        <v>0.02305324677154048</v>
       </c>
       <c r="F31">
-        <v>-0.02198914340989674</v>
-      </c>
-    </row>
-    <row r="32" spans="1:6">
+        <v>-0.000115011629433286</v>
+      </c>
+      <c r="G31">
+        <v>0.03747856368350524</v>
+      </c>
+      <c r="H31">
+        <v>0.04786916983616753</v>
+      </c>
+      <c r="I31">
+        <v>0.0157669080829782</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9">
       <c r="A32" s="1" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="B32">
-        <v>-0.05671301600459794</v>
+        <v>0.03291144463525488</v>
       </c>
       <c r="C32">
-        <v>-0.0003072613860171145</v>
+        <v>-0.03691959408833594</v>
       </c>
       <c r="D32">
-        <v>-0.05907439303820144</v>
+        <v>0.02600588706855786</v>
       </c>
       <c r="E32">
-        <v>-0.02216780546580234</v>
+        <v>0.03481910295918474</v>
       </c>
       <c r="F32">
-        <v>0.09856616003848018</v>
-      </c>
-    </row>
-    <row r="33" spans="1:6">
+        <v>0.08178762215785434</v>
+      </c>
+      <c r="G32">
+        <v>0.0301127931634894</v>
+      </c>
+      <c r="H32">
+        <v>0.03102711811609816</v>
+      </c>
+      <c r="I32">
+        <v>0.06187220903987968</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9">
       <c r="A33" s="1" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="B33">
-        <v>-0.05337732812586266</v>
+        <v>0.04588066783371279</v>
       </c>
       <c r="C33">
-        <v>-0.01221931523233136</v>
+        <v>-0.011761576946098</v>
       </c>
       <c r="D33">
-        <v>-0.07050146773449632</v>
+        <v>0.05362880949850302</v>
       </c>
       <c r="E33">
-        <v>0.003761201271528711</v>
+        <v>0.006049446747344561</v>
       </c>
       <c r="F33">
-        <v>0.07030503058012831</v>
-      </c>
-    </row>
-    <row r="34" spans="1:6">
+        <v>0.07299967145059919</v>
+      </c>
+      <c r="G33">
+        <v>0.03561994514098545</v>
+      </c>
+      <c r="H33">
+        <v>0.04209959082672376</v>
+      </c>
+      <c r="I33">
+        <v>0.03620106743762731</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9">
       <c r="A34" s="1" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B34">
-        <v>-0.04169829119050587</v>
+        <v>0.03830997579774105</v>
       </c>
       <c r="C34">
-        <v>0.002490140969082966</v>
+        <v>-0.02381876457809155</v>
       </c>
       <c r="D34">
-        <v>-0.03253575301704908</v>
+        <v>0.02624967832140605</v>
       </c>
       <c r="E34">
-        <v>-0.008919297605474505</v>
+        <v>0.01829117422338387</v>
       </c>
       <c r="F34">
-        <v>0.04067201163077528</v>
-      </c>
-    </row>
-    <row r="35" spans="1:6">
+        <v>0.03847282631487173</v>
+      </c>
+      <c r="G34">
+        <v>-0.001804372644832784</v>
+      </c>
+      <c r="H34">
+        <v>0.009980394104570649</v>
+      </c>
+      <c r="I34">
+        <v>0.03608500961016927</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9">
       <c r="A35" s="1" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="B35">
         <v>0</v>
@@ -1397,30 +1712,48 @@
       <c r="F35">
         <v>0</v>
       </c>
-    </row>
-    <row r="36" spans="1:6">
+      <c r="G35">
+        <v>0</v>
+      </c>
+      <c r="H35">
+        <v>0</v>
+      </c>
+      <c r="I35">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9">
       <c r="A36" s="1" t="s">
-        <v>39</v>
+        <v>42</v>
       </c>
       <c r="B36">
-        <v>-0.0144599929175815</v>
+        <v>0.01579939120112476</v>
       </c>
       <c r="C36">
-        <v>0.01078407355459249</v>
+        <v>-0.004012556247023477</v>
       </c>
       <c r="D36">
-        <v>-0.01327648382336806</v>
+        <v>0.0004855343986284502</v>
       </c>
       <c r="E36">
-        <v>-0.005446671576582869</v>
+        <v>0.009368550061085482</v>
       </c>
       <c r="F36">
-        <v>0.02463472713428771</v>
-      </c>
-    </row>
-    <row r="37" spans="1:6">
+        <v>0.02802851065199264</v>
+      </c>
+      <c r="G36">
+        <v>0.02723628833951961</v>
+      </c>
+      <c r="H36">
+        <v>0.02919907235616594</v>
+      </c>
+      <c r="I36">
+        <v>-0.009462926933631646</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9">
       <c r="A37" s="1" t="s">
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -1437,150 +1770,222 @@
       <c r="F37">
         <v>0</v>
       </c>
-    </row>
-    <row r="38" spans="1:6">
+      <c r="G37">
+        <v>0</v>
+      </c>
+      <c r="H37">
+        <v>0</v>
+      </c>
+      <c r="I37">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9">
       <c r="A38" s="1" t="s">
-        <v>41</v>
+        <v>44</v>
       </c>
       <c r="B38">
-        <v>-0.03245508440166176</v>
+        <v>0.02995332489791434</v>
       </c>
       <c r="C38">
-        <v>0.005411750413100657</v>
+        <v>-0.006101511330513724</v>
       </c>
       <c r="D38">
-        <v>-0.002687151644565686</v>
+        <v>0.004415463512417591</v>
       </c>
       <c r="E38">
-        <v>-0.008290781680619107</v>
+        <v>0.002226701024207632</v>
       </c>
       <c r="F38">
-        <v>0.02231758801609682</v>
-      </c>
-    </row>
-    <row r="39" spans="1:6">
+        <v>0.04797903491557737</v>
+      </c>
+      <c r="G38">
+        <v>0.009719109460573914</v>
+      </c>
+      <c r="H38">
+        <v>0.03485669900929614</v>
+      </c>
+      <c r="I38">
+        <v>-0.003034055256727238</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9">
       <c r="A39" s="1" t="s">
-        <v>42</v>
+        <v>45</v>
       </c>
       <c r="B39">
-        <v>-0.06340705796956134</v>
+        <v>0.04913513145539429</v>
       </c>
       <c r="C39">
-        <v>0.004039905152607866</v>
+        <v>-0.02365902150680699</v>
       </c>
       <c r="D39">
-        <v>-0.04323941912668726</v>
+        <v>0.04592909889639295</v>
       </c>
       <c r="E39">
-        <v>0.006456338380319078</v>
+        <v>0.02123382390491913</v>
       </c>
       <c r="F39">
-        <v>0.04261899671949343</v>
-      </c>
-    </row>
-    <row r="40" spans="1:6">
+        <v>0.05805736651852942</v>
+      </c>
+      <c r="G39">
+        <v>-0.009938315231968255</v>
+      </c>
+      <c r="H39">
+        <v>0.02230017975940124</v>
+      </c>
+      <c r="I39">
+        <v>0.01910840519538436</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9">
       <c r="A40" s="1" t="s">
-        <v>43</v>
+        <v>46</v>
       </c>
       <c r="B40">
-        <v>-0.06035225040522099</v>
+        <v>0.04847880348952141</v>
       </c>
       <c r="C40">
-        <v>0.02066898263740828</v>
+        <v>-0.004674650297805683</v>
       </c>
       <c r="D40">
-        <v>-0.06536015519226049</v>
+        <v>0.04658316692025307</v>
       </c>
       <c r="E40">
-        <v>0.02819146509720317</v>
+        <v>0.0247350035473408</v>
       </c>
       <c r="F40">
-        <v>0.1007821108450191</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
+        <v>0.08832712797680549</v>
+      </c>
+      <c r="G40">
+        <v>0.03149851256075237</v>
+      </c>
+      <c r="H40">
+        <v>0.03411260807401054</v>
+      </c>
+      <c r="I40">
+        <v>0.116644951301496</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9">
       <c r="A41" s="1" t="s">
-        <v>44</v>
+        <v>47</v>
       </c>
       <c r="B41">
-        <v>0.005416046541188707</v>
+        <v>0.0008110777264848726</v>
       </c>
       <c r="C41">
-        <v>-0.0005129236225365951</v>
+        <v>-0.001675292996635794</v>
       </c>
       <c r="D41">
-        <v>-0.0272406646029473</v>
+        <v>0.004896996703987818</v>
       </c>
       <c r="E41">
-        <v>-0.003494125528488756</v>
+        <v>0.007725828728201738</v>
       </c>
       <c r="F41">
-        <v>-0.004501790782014913</v>
-      </c>
-    </row>
-    <row r="42" spans="1:6">
+        <v>0.01035113976501309</v>
+      </c>
+      <c r="G41">
+        <v>0.03639102298960002</v>
+      </c>
+      <c r="H41">
+        <v>0.04307915846405877</v>
+      </c>
+      <c r="I41">
+        <v>0.002861174694169604</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9">
       <c r="A42" s="1" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="B42">
-        <v>-0.2528984681594254</v>
+        <v>0.2082579635800851</v>
       </c>
       <c r="C42">
-        <v>-0.8910238677461014</v>
+        <v>-0.1454635710572554</v>
       </c>
       <c r="D42">
-        <v>0.2508810880411267</v>
+        <v>0.2738033738899154</v>
       </c>
       <c r="E42">
-        <v>0.1968337589577101</v>
+        <v>-0.8917345165902498</v>
       </c>
       <c r="F42">
-        <v>-0.05608739687712738</v>
-      </c>
-    </row>
-    <row r="43" spans="1:6">
+        <v>-0.1866312456700458</v>
+      </c>
+      <c r="G42">
+        <v>0.004257193709328666</v>
+      </c>
+      <c r="H42">
+        <v>-0.01313140826063797</v>
+      </c>
+      <c r="I42">
+        <v>0.03809529246227762</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9">
       <c r="A43" s="1" t="s">
-        <v>46</v>
+        <v>49</v>
       </c>
       <c r="B43">
-        <v>0.005074251985763415</v>
+        <v>0.003516116492810101</v>
       </c>
       <c r="C43">
-        <v>-0.001637961935073456</v>
+        <v>-0.0002853382100527079</v>
       </c>
       <c r="D43">
-        <v>-0.02773004248616055</v>
+        <v>0.007375889320599691</v>
       </c>
       <c r="E43">
-        <v>0.001173723435578238</v>
+        <v>0.005922456796845002</v>
       </c>
       <c r="F43">
-        <v>0.02274451738404381</v>
-      </c>
-    </row>
-    <row r="44" spans="1:6">
+        <v>0.02054132669627466</v>
+      </c>
+      <c r="G43">
+        <v>0.03041272922871749</v>
+      </c>
+      <c r="H43">
+        <v>0.02349076872177249</v>
+      </c>
+      <c r="I43">
+        <v>0.0113802035627752</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9">
       <c r="A44" s="1" t="s">
-        <v>47</v>
+        <v>50</v>
       </c>
       <c r="B44">
-        <v>-0.03359108120970187</v>
+        <v>0.0228924327432452</v>
       </c>
       <c r="C44">
-        <v>-0.003144710137114998</v>
+        <v>-0.02035118723843232</v>
       </c>
       <c r="D44">
-        <v>-0.06712801670834766</v>
+        <v>0.03015233075912605</v>
       </c>
       <c r="E44">
-        <v>-0.004237857742091479</v>
+        <v>0.01049397910593363</v>
       </c>
       <c r="F44">
-        <v>0.1245493499131509</v>
-      </c>
-    </row>
-    <row r="45" spans="1:6">
+        <v>0.120065739052866</v>
+      </c>
+      <c r="G44">
+        <v>0.08392103793404891</v>
+      </c>
+      <c r="H44">
+        <v>0.06655583589901412</v>
+      </c>
+      <c r="I44">
+        <v>0.05743737092467519</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9">
       <c r="A45" s="1" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
       <c r="B45">
         <v>0</v>
@@ -1597,70 +2002,106 @@
       <c r="F45">
         <v>0</v>
       </c>
-    </row>
-    <row r="46" spans="1:6">
+      <c r="G45">
+        <v>0</v>
+      </c>
+      <c r="H45">
+        <v>0</v>
+      </c>
+      <c r="I45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9">
       <c r="A46" s="1" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B46">
-        <v>-0.02965008542329671</v>
+        <v>0.02209049868860862</v>
       </c>
       <c r="C46">
-        <v>0.003807848738493326</v>
+        <v>-0.01455908863815798</v>
       </c>
       <c r="D46">
-        <v>-0.04935250521786382</v>
+        <v>0.02999028483681931</v>
       </c>
       <c r="E46">
-        <v>-0.003424418652298041</v>
+        <v>0.03048978864650248</v>
       </c>
       <c r="F46">
-        <v>0.01923065774484348</v>
-      </c>
-    </row>
-    <row r="47" spans="1:6">
+        <v>0.04836146958062107</v>
+      </c>
+      <c r="G46">
+        <v>0.05457795706794812</v>
+      </c>
+      <c r="H46">
+        <v>0.0300707999777656</v>
+      </c>
+      <c r="I46">
+        <v>0.006986947781279634</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9">
       <c r="A47" s="1" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B47">
-        <v>-0.08769254249981154</v>
+        <v>0.08305251371474892</v>
       </c>
       <c r="C47">
-        <v>0.01639239564396724</v>
+        <v>-0.01143694705148228</v>
       </c>
       <c r="D47">
-        <v>-0.0400298983491172</v>
+        <v>0.02251107054826637</v>
       </c>
       <c r="E47">
-        <v>-0.006292934834637148</v>
+        <v>0.02979276414310676</v>
       </c>
       <c r="F47">
-        <v>-0.01614674092268347</v>
-      </c>
-    </row>
-    <row r="48" spans="1:6">
+        <v>-0.01593118146777737</v>
+      </c>
+      <c r="G47">
+        <v>0.06318655093891586</v>
+      </c>
+      <c r="H47">
+        <v>0.04215711390662993</v>
+      </c>
+      <c r="I47">
+        <v>0.02866379541315662</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9">
       <c r="A48" s="1" t="s">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="B48">
-        <v>-0.0152720494100593</v>
+        <v>0.01993050015187723</v>
       </c>
       <c r="C48">
-        <v>0.004205946592234214</v>
+        <v>-0.00863058714962236</v>
       </c>
       <c r="D48">
-        <v>-0.03548073376205677</v>
+        <v>0.01230447544057681</v>
       </c>
       <c r="E48">
-        <v>-0.004272401723267396</v>
+        <v>0.01379611947674272</v>
       </c>
       <c r="F48">
-        <v>0.02888941733922799</v>
-      </c>
-    </row>
-    <row r="49" spans="1:6">
+        <v>0.03016487745159276</v>
+      </c>
+      <c r="G48">
+        <v>0.01966685167878754</v>
+      </c>
+      <c r="H48">
+        <v>0.02045226055145877</v>
+      </c>
+      <c r="I48">
+        <v>0.009599474766089109</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9">
       <c r="A49" s="1" t="s">
-        <v>52</v>
+        <v>55</v>
       </c>
       <c r="B49">
         <v>0</v>
@@ -1677,50 +2118,77 @@
       <c r="F49">
         <v>0</v>
       </c>
-    </row>
-    <row r="50" spans="1:6">
+      <c r="G49">
+        <v>0</v>
+      </c>
+      <c r="H49">
+        <v>0</v>
+      </c>
+      <c r="I49">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9">
       <c r="A50" s="1" t="s">
-        <v>53</v>
+        <v>56</v>
       </c>
       <c r="B50">
-        <v>-0.08544290147478963</v>
+        <v>0.08168496287838979</v>
       </c>
       <c r="C50">
-        <v>0.00233853712990122</v>
+        <v>-0.03173223500752302</v>
       </c>
       <c r="D50">
-        <v>-0.04511890882722712</v>
+        <v>0.02906513488971515</v>
       </c>
       <c r="E50">
-        <v>0.007730525682898898</v>
+        <v>0.02457331117384882</v>
       </c>
       <c r="F50">
-        <v>-0.02278073591458372</v>
-      </c>
-    </row>
-    <row r="51" spans="1:6">
+        <v>-0.009547504058596362</v>
+      </c>
+      <c r="G50">
+        <v>0.04487142226577274</v>
+      </c>
+      <c r="H50">
+        <v>-0.002516368243910808</v>
+      </c>
+      <c r="I50">
+        <v>-0.008669001237983268</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9">
       <c r="A51" s="1" t="s">
-        <v>54</v>
+        <v>57</v>
       </c>
       <c r="B51">
-        <v>-0.05406109231579148</v>
+        <v>0.03912658331154117</v>
       </c>
       <c r="C51">
-        <v>0.0176159870446821</v>
+        <v>0.01129332615223701</v>
       </c>
       <c r="D51">
-        <v>-0.02624033925795418</v>
+        <v>0.004711403667193885</v>
       </c>
       <c r="E51">
-        <v>0.03372968127428004</v>
+        <v>0.01053730520943524</v>
       </c>
       <c r="F51">
-        <v>0.05416081795119224</v>
-      </c>
-    </row>
-    <row r="52" spans="1:6">
+        <v>0.0804322411959142</v>
+      </c>
+      <c r="G51">
+        <v>0.05851880561723538</v>
+      </c>
+      <c r="H51">
+        <v>0.06224578951711465</v>
+      </c>
+      <c r="I51">
+        <v>0.03899436793417307</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9">
       <c r="A52" s="1" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="B52">
         <v>0</v>
@@ -1737,190 +2205,280 @@
       <c r="F52">
         <v>0</v>
       </c>
-    </row>
-    <row r="53" spans="1:6">
+      <c r="G52">
+        <v>0</v>
+      </c>
+      <c r="H52">
+        <v>0</v>
+      </c>
+      <c r="I52">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9">
       <c r="A53" s="1" t="s">
-        <v>56</v>
+        <v>59</v>
       </c>
       <c r="B53">
-        <v>-0.1251125083261867</v>
+        <v>0.115448809355885</v>
       </c>
       <c r="C53">
-        <v>0.0262543458605732</v>
+        <v>-0.0215809185920425</v>
       </c>
       <c r="D53">
-        <v>-0.05859635701620099</v>
+        <v>0.03910390371689195</v>
       </c>
       <c r="E53">
-        <v>0.007378696399904369</v>
+        <v>0.05600388045124336</v>
       </c>
       <c r="F53">
-        <v>-0.07197255306731322</v>
-      </c>
-    </row>
-    <row r="54" spans="1:6">
+        <v>-0.05469010285600374</v>
+      </c>
+      <c r="G53">
+        <v>0.02733773096042835</v>
+      </c>
+      <c r="H53">
+        <v>0.02712591575053881</v>
+      </c>
+      <c r="I53">
+        <v>0.02918003398182569</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9">
       <c r="A54" s="1" t="s">
-        <v>57</v>
+        <v>60</v>
       </c>
       <c r="B54">
-        <v>-0.02450980422458851</v>
+        <v>0.02586185593937698</v>
       </c>
       <c r="C54">
-        <v>0.01885617956587706</v>
+        <v>-0.005507968281278615</v>
       </c>
       <c r="D54">
-        <v>-0.02977369008520085</v>
+        <v>0.001261790346163622</v>
       </c>
       <c r="E54">
-        <v>-0.008484458500266811</v>
+        <v>0.02876624293805374</v>
       </c>
       <c r="F54">
-        <v>0.03992253956177169</v>
-      </c>
-    </row>
-    <row r="55" spans="1:6">
+        <v>0.03823650740931108</v>
+      </c>
+      <c r="G54">
+        <v>0.05040570042425217</v>
+      </c>
+      <c r="H54">
+        <v>0.04038291414118705</v>
+      </c>
+      <c r="I54">
+        <v>0.002354642886379971</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9">
       <c r="A55" s="1" t="s">
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="B55">
-        <v>-0.1040019562871161</v>
+        <v>0.09294270166443322</v>
       </c>
       <c r="C55">
-        <v>0.02284503173471847</v>
+        <v>-0.03315387661159217</v>
       </c>
       <c r="D55">
-        <v>-0.0205998270994327</v>
+        <v>0.02585677333196194</v>
       </c>
       <c r="E55">
-        <v>-0.03560307095638479</v>
+        <v>0.04067358368027445</v>
       </c>
       <c r="F55">
-        <v>-0.03149474882502758</v>
-      </c>
-    </row>
-    <row r="56" spans="1:6">
+        <v>-0.04286883288583524</v>
+      </c>
+      <c r="G55">
+        <v>0.04653029954571507</v>
+      </c>
+      <c r="H55">
+        <v>-0.004106239241950235</v>
+      </c>
+      <c r="I55">
+        <v>0.004183302700738349</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9">
       <c r="A56" s="1" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="B56">
-        <v>-0.162166258527872</v>
+        <v>0.1573107262958544</v>
       </c>
       <c r="C56">
-        <v>0.07547582017177802</v>
+        <v>-0.02065937492769825</v>
       </c>
       <c r="D56">
-        <v>-0.04875781324021849</v>
+        <v>0.03122085480283252</v>
       </c>
       <c r="E56">
-        <v>-0.01856154874240476</v>
+        <v>0.09255910959124612</v>
       </c>
       <c r="F56">
-        <v>-0.109201352316884</v>
-      </c>
-    </row>
-    <row r="57" spans="1:6">
+        <v>-0.09679614494828043</v>
+      </c>
+      <c r="G56">
+        <v>-0.004619104493276491</v>
+      </c>
+      <c r="H56">
+        <v>-0.02392787899140639</v>
+      </c>
+      <c r="I56">
+        <v>0.02758244988775626</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9">
       <c r="A57" s="1" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="B57">
-        <v>-0.06620263207377222</v>
+        <v>0.05654516404638539</v>
       </c>
       <c r="C57">
-        <v>0.01061578709037138</v>
+        <v>0.002678303318103471</v>
       </c>
       <c r="D57">
-        <v>-0.04002782515781809</v>
+        <v>0.03058184308860194</v>
       </c>
       <c r="E57">
-        <v>0.02562047276207489</v>
+        <v>0.00226507833932698</v>
       </c>
       <c r="F57">
-        <v>0.06661053299159822</v>
-      </c>
-    </row>
-    <row r="58" spans="1:6">
+        <v>0.06427491860627724</v>
+      </c>
+      <c r="G57">
+        <v>0.01557457118802681</v>
+      </c>
+      <c r="H57">
+        <v>0.02136571360953521</v>
+      </c>
+      <c r="I57">
+        <v>0.03044946075627824</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9">
       <c r="A58" s="1" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="B58">
-        <v>-0.1977191074554964</v>
+        <v>0.2007543103370892</v>
       </c>
       <c r="C58">
-        <v>-0.006174258808103948</v>
+        <v>0.01504626069293966</v>
       </c>
       <c r="D58">
-        <v>-0.1081039902955825</v>
+        <v>0.1521709768879124</v>
       </c>
       <c r="E58">
-        <v>0.02760608563848471</v>
+        <v>-0.03054824437049065</v>
       </c>
       <c r="F58">
-        <v>0.2387953104190298</v>
-      </c>
-    </row>
-    <row r="59" spans="1:6">
+        <v>0.3678805933412791</v>
+      </c>
+      <c r="G58">
+        <v>0.3657631697646661</v>
+      </c>
+      <c r="H58">
+        <v>-0.2329413848226547</v>
+      </c>
+      <c r="I58">
+        <v>-0.7260704607796389</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9">
       <c r="A59" s="1" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="B59">
-        <v>-0.04213009468795486</v>
+        <v>0.07103581226650238</v>
       </c>
       <c r="C59">
-        <v>0.1105642111141912</v>
+        <v>0.1344296027398655</v>
       </c>
       <c r="D59">
-        <v>0.1631050737200238</v>
+        <v>-0.1578615803758016</v>
       </c>
       <c r="E59">
-        <v>0.05227335306686925</v>
+        <v>-0.02569374183446601</v>
       </c>
       <c r="F59">
-        <v>0.04282303286517093</v>
-      </c>
-    </row>
-    <row r="60" spans="1:6">
+        <v>0.05109736408031441</v>
+      </c>
+      <c r="G59">
+        <v>-0.007201827418319827</v>
+      </c>
+      <c r="H59">
+        <v>0.007584373608258679</v>
+      </c>
+      <c r="I59">
+        <v>0.005939556457945858</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9">
       <c r="A60" s="1" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B60">
-        <v>-0.1845858808651591</v>
+        <v>0.2009977486209488</v>
       </c>
       <c r="C60">
-        <v>0.05942258087900583</v>
+        <v>0.07175431502261848</v>
       </c>
       <c r="D60">
-        <v>0.01850187723238227</v>
+        <v>-0.003480382369225632</v>
       </c>
       <c r="E60">
-        <v>0.08551329264935152</v>
+        <v>0.01177137999629809</v>
       </c>
       <c r="F60">
-        <v>0.1322821535699803</v>
-      </c>
-    </row>
-    <row r="61" spans="1:6">
+        <v>0.176558345229856</v>
+      </c>
+      <c r="G60">
+        <v>-0.3494059010135229</v>
+      </c>
+      <c r="H60">
+        <v>-0.05482621149894675</v>
+      </c>
+      <c r="I60">
+        <v>0.03339672228268344</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9">
       <c r="A61" s="1" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="B61">
-        <v>-0.03361079401760026</v>
+        <v>0.03636354825920224</v>
       </c>
       <c r="C61">
-        <v>0.001267195280786232</v>
+        <v>-0.0203456290897968</v>
       </c>
       <c r="D61">
-        <v>-0.02416733678031549</v>
+        <v>0.02870746043716798</v>
       </c>
       <c r="E61">
-        <v>-0.009104764885614319</v>
+        <v>0.01455136257408737</v>
       </c>
       <c r="F61">
-        <v>0.04491184222089431</v>
-      </c>
-    </row>
-    <row r="62" spans="1:6">
+        <v>0.04180102199088901</v>
+      </c>
+      <c r="G61">
+        <v>-0.0187290457711645</v>
+      </c>
+      <c r="H61">
+        <v>0.01055302928890851</v>
+      </c>
+      <c r="I61">
+        <v>0.00778407805084581</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9">
       <c r="A62" s="1" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -1937,150 +2495,222 @@
       <c r="F62">
         <v>0</v>
       </c>
-    </row>
-    <row r="63" spans="1:6">
+      <c r="G62">
+        <v>0</v>
+      </c>
+      <c r="H62">
+        <v>0</v>
+      </c>
+      <c r="I62">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9">
       <c r="A63" s="1" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="B63">
-        <v>-0.03137623066674916</v>
+        <v>0.02642070945202097</v>
       </c>
       <c r="C63">
-        <v>0.01149657663182117</v>
+        <v>-0.01101256665433496</v>
       </c>
       <c r="D63">
-        <v>-0.0327849400110368</v>
+        <v>0.01854474903835696</v>
       </c>
       <c r="E63">
-        <v>0.0001956951297370115</v>
+        <v>0.01609584222844406</v>
       </c>
       <c r="F63">
-        <v>0.05452310623657209</v>
-      </c>
-    </row>
-    <row r="64" spans="1:6">
+        <v>0.03501309517803874</v>
+      </c>
+      <c r="G63">
+        <v>0.04687240712910028</v>
+      </c>
+      <c r="H63">
+        <v>0.01365016057429776</v>
+      </c>
+      <c r="I63">
+        <v>0.02845246088249956</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9">
       <c r="A64" s="1" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
       <c r="B64">
-        <v>-0.05247387299276016</v>
+        <v>0.05342257216494353</v>
       </c>
       <c r="C64">
-        <v>0.003505013623398116</v>
+        <v>-0.02963091922467584</v>
       </c>
       <c r="D64">
-        <v>-0.05012371353302721</v>
+        <v>0.02578911139948623</v>
       </c>
       <c r="E64">
-        <v>-0.03906710125805884</v>
+        <v>0.02177311544814986</v>
       </c>
       <c r="F64">
-        <v>0.04424877825678202</v>
-      </c>
-    </row>
-    <row r="65" spans="1:6">
+        <v>0.04289955892898377</v>
+      </c>
+      <c r="G64">
+        <v>0.01790375987759798</v>
+      </c>
+      <c r="H64">
+        <v>0.06547576283057396</v>
+      </c>
+      <c r="I64">
+        <v>0.04421340350511943</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9">
       <c r="A65" s="1" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="B65">
-        <v>-0.0007585475023197145</v>
+        <v>0.03053619903079531</v>
       </c>
       <c r="C65">
-        <v>-0.002204389153640928</v>
+        <v>-0.01187529707146295</v>
       </c>
       <c r="D65">
-        <v>0.001440005917661098</v>
+        <v>0.01050155355606642</v>
       </c>
       <c r="E65">
-        <v>0.001728190474829125</v>
+        <v>0.007843661943253246</v>
       </c>
       <c r="F65">
-        <v>-0.0009410845889886466</v>
-      </c>
-    </row>
-    <row r="66" spans="1:6">
+        <v>0.006378358336367453</v>
+      </c>
+      <c r="G65">
+        <v>-0.02566787138800905</v>
+      </c>
+      <c r="H65">
+        <v>-0.01369242498732373</v>
+      </c>
+      <c r="I65">
+        <v>0.004457119910069231</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9">
       <c r="A66" s="1" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="B66">
-        <v>-0.06194093672007637</v>
+        <v>0.05821351737732821</v>
       </c>
       <c r="C66">
-        <v>0.01679105950014591</v>
+        <v>-0.02245220906145625</v>
       </c>
       <c r="D66">
-        <v>-0.06922527330101047</v>
+        <v>0.05648970738163867</v>
       </c>
       <c r="E66">
-        <v>-0.01314268147766235</v>
+        <v>0.04720435094684407</v>
       </c>
       <c r="F66">
-        <v>0.08261841590842582</v>
-      </c>
-    </row>
-    <row r="67" spans="1:6">
+        <v>0.07104317424131497</v>
+      </c>
+      <c r="G66">
+        <v>-0.01558534114212391</v>
+      </c>
+      <c r="H66">
+        <v>0.006603499481035236</v>
+      </c>
+      <c r="I66">
+        <v>0.0584924982580364</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9">
       <c r="A67" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="B67">
-        <v>-0.05027796278647358</v>
+        <v>0.04825535188255232</v>
       </c>
       <c r="C67">
-        <v>0.01305732915893848</v>
+        <v>0.004349548781598798</v>
       </c>
       <c r="D67">
-        <v>0.0124389429998392</v>
+        <v>-0.002731410310594777</v>
       </c>
       <c r="E67">
-        <v>0.002760565207455463</v>
+        <v>0.004366440216792549</v>
       </c>
       <c r="F67">
-        <v>0.02495257484999088</v>
-      </c>
-    </row>
-    <row r="68" spans="1:6">
+        <v>0.03855574515189307</v>
+      </c>
+      <c r="G67">
+        <v>-0.01557238562546575</v>
+      </c>
+      <c r="H67">
+        <v>0.04548134871456091</v>
+      </c>
+      <c r="I67">
+        <v>-0.006499058589665636</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9">
       <c r="A68" s="1" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B68">
-        <v>-0.07268649130608101</v>
+        <v>0.08212089739212093</v>
       </c>
       <c r="C68">
-        <v>0.1095327371001606</v>
+        <v>0.1451162955048553</v>
       </c>
       <c r="D68">
-        <v>0.211008817339408</v>
+        <v>-0.1827222461146068</v>
       </c>
       <c r="E68">
-        <v>0.05920785622481253</v>
+        <v>-0.04521311406149792</v>
       </c>
       <c r="F68">
-        <v>0.02418590480588526</v>
-      </c>
-    </row>
-    <row r="69" spans="1:6">
+        <v>0.01673021059720715</v>
+      </c>
+      <c r="G68">
+        <v>0.04493924410825358</v>
+      </c>
+      <c r="H68">
+        <v>-0.009716287389193621</v>
+      </c>
+      <c r="I68">
+        <v>-0.001798545215740889</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9">
       <c r="A69" s="1" t="s">
-        <v>72</v>
+        <v>75</v>
       </c>
       <c r="B69">
-        <v>-0.07430178198935473</v>
+        <v>0.06779266046336656</v>
       </c>
       <c r="C69">
-        <v>0.01900097727882846</v>
+        <v>-0.007729307683129369</v>
       </c>
       <c r="D69">
-        <v>-0.02484610742797883</v>
+        <v>0.0217134224872624</v>
       </c>
       <c r="E69">
-        <v>0.003363890549423276</v>
+        <v>0.03135036779089172</v>
       </c>
       <c r="F69">
-        <v>-0.007110477713541354</v>
-      </c>
-    </row>
-    <row r="70" spans="1:6">
+        <v>-0.003295579921996338</v>
+      </c>
+      <c r="G69">
+        <v>0.03976956261092149</v>
+      </c>
+      <c r="H69">
+        <v>0.03150970084225644</v>
+      </c>
+      <c r="I69">
+        <v>0.02011855350588371</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9">
       <c r="A70" s="1" t="s">
-        <v>73</v>
+        <v>76</v>
       </c>
       <c r="B70">
         <v>0</v>
@@ -2097,170 +2727,251 @@
       <c r="F70">
         <v>0</v>
       </c>
-    </row>
-    <row r="71" spans="1:6">
+      <c r="G70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>0</v>
+      </c>
+      <c r="I70">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9">
       <c r="A71" s="1" t="s">
-        <v>74</v>
+        <v>77</v>
       </c>
       <c r="B71">
-        <v>-0.0698697227397948</v>
+        <v>0.07959375148187031</v>
       </c>
       <c r="C71">
-        <v>0.1353186630959424</v>
+        <v>0.1647187105709152</v>
       </c>
       <c r="D71">
-        <v>0.2578258551195488</v>
+        <v>-0.2018740505249955</v>
       </c>
       <c r="E71">
-        <v>0.1092858247470375</v>
+        <v>-0.06133373385128991</v>
       </c>
       <c r="F71">
-        <v>0.05996885242108595</v>
-      </c>
-    </row>
-    <row r="72" spans="1:6">
+        <v>0.03950363440516523</v>
+      </c>
+      <c r="G71">
+        <v>0.03080509567552008</v>
+      </c>
+      <c r="H71">
+        <v>0.01651882849078547</v>
+      </c>
+      <c r="I71">
+        <v>0.02093200380348236</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9">
       <c r="A72" s="1" t="s">
-        <v>75</v>
+        <v>78</v>
       </c>
       <c r="B72">
-        <v>-0.1327339920098494</v>
+        <v>0.1365489960171637</v>
       </c>
       <c r="C72">
-        <v>0.06772172018788641</v>
+        <v>-0.01027406069217589</v>
       </c>
       <c r="D72">
-        <v>-0.04026137668672633</v>
+        <v>0.04569626416886637</v>
       </c>
       <c r="E72">
-        <v>-0.0006860391444646473</v>
+        <v>0.08146503418714755</v>
       </c>
       <c r="F72">
-        <v>0.08093065855881004</v>
-      </c>
-    </row>
-    <row r="73" spans="1:6">
+        <v>0.1023042251988517</v>
+      </c>
+      <c r="G72">
+        <v>-0.1017303103434375</v>
+      </c>
+      <c r="H72">
+        <v>-0.01793202421745452</v>
+      </c>
+      <c r="I72">
+        <v>-0.1423620200894879</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9">
       <c r="A73" s="1" t="s">
-        <v>76</v>
+        <v>79</v>
       </c>
       <c r="B73">
-        <v>-0.2926476995744712</v>
+        <v>0.2907996802719868</v>
       </c>
       <c r="C73">
-        <v>0.07500388636625487</v>
+        <v>0.1041112709593559</v>
       </c>
       <c r="D73">
-        <v>0.06605979113179231</v>
+        <v>0.01928861153568653</v>
       </c>
       <c r="E73">
-        <v>0.1136313156079325</v>
+        <v>-0.03212672435118528</v>
       </c>
       <c r="F73">
-        <v>0.2312594435393992</v>
-      </c>
-    </row>
-    <row r="74" spans="1:6">
+        <v>0.2562314693654126</v>
+      </c>
+      <c r="G73">
+        <v>-0.522231910393942</v>
+      </c>
+      <c r="H73">
+        <v>-0.1314424478085156</v>
+      </c>
+      <c r="I73">
+        <v>-0.005599862724433273</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9">
       <c r="A74" s="1" t="s">
-        <v>77</v>
+        <v>80</v>
       </c>
       <c r="B74">
-        <v>-0.1453548931232579</v>
+        <v>0.1412144511016131</v>
       </c>
       <c r="C74">
-        <v>0.02624143725560367</v>
+        <v>-0.0221469480128609</v>
       </c>
       <c r="D74">
-        <v>-0.04298890347571346</v>
+        <v>0.04626922754790812</v>
       </c>
       <c r="E74">
-        <v>-0.00147723139927395</v>
+        <v>0.05532273246359422</v>
       </c>
       <c r="F74">
-        <v>-0.05765160269159023</v>
-      </c>
-    </row>
-    <row r="75" spans="1:6">
+        <v>-0.0751845371386221</v>
+      </c>
+      <c r="G74">
+        <v>-0.008441676247778673</v>
+      </c>
+      <c r="H74">
+        <v>-0.02037412166275315</v>
+      </c>
+      <c r="I74">
+        <v>0.0700568521301379</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9">
       <c r="A75" s="1" t="s">
-        <v>78</v>
+        <v>81</v>
       </c>
       <c r="B75">
-        <v>-0.224119242827112</v>
+        <v>0.2437212197057993</v>
       </c>
       <c r="C75">
-        <v>0.0732440773638591</v>
+        <v>-0.01152556934719458</v>
       </c>
       <c r="D75">
-        <v>-0.08782490319164712</v>
+        <v>0.0632883643867643</v>
       </c>
       <c r="E75">
-        <v>0.009471845180965202</v>
+        <v>0.1287347705279751</v>
       </c>
       <c r="F75">
-        <v>-0.1461441864324336</v>
-      </c>
-    </row>
-    <row r="76" spans="1:6">
+        <v>-0.1476200279922493</v>
+      </c>
+      <c r="G75">
+        <v>0.01839234853386124</v>
+      </c>
+      <c r="H75">
+        <v>0.00601771350397054</v>
+      </c>
+      <c r="I75">
+        <v>0.02374602409883218</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9">
       <c r="A76" s="1" t="s">
-        <v>79</v>
+        <v>82</v>
       </c>
       <c r="B76">
-        <v>-0.2592115323323553</v>
+        <v>0.2568119504920758</v>
       </c>
       <c r="C76">
-        <v>0.09795974697327495</v>
+        <v>-0.03791617497222838</v>
       </c>
       <c r="D76">
-        <v>-0.05526069506488984</v>
+        <v>0.03225315667233494</v>
       </c>
       <c r="E76">
-        <v>-0.05119889750616798</v>
+        <v>0.1502799727426827</v>
       </c>
       <c r="F76">
-        <v>-0.146107454322156</v>
-      </c>
-    </row>
-    <row r="77" spans="1:6">
+        <v>-0.1927839206567369</v>
+      </c>
+      <c r="G76">
+        <v>0.03540902175400865</v>
+      </c>
+      <c r="H76">
+        <v>-0.07126438158344864</v>
+      </c>
+      <c r="I76">
+        <v>0.02657699912384631</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9">
       <c r="A77" s="1" t="s">
-        <v>80</v>
+        <v>83</v>
       </c>
       <c r="B77">
-        <v>-0.1383141202272331</v>
+        <v>0.10546679203362</v>
       </c>
       <c r="C77">
-        <v>-0.05929019036765817</v>
+        <v>-0.03966598697464255</v>
       </c>
       <c r="D77">
-        <v>-0.06703903945125182</v>
+        <v>0.07094314899185553</v>
       </c>
       <c r="E77">
-        <v>-0.004768470310577074</v>
+        <v>-0.04274929632389133</v>
       </c>
       <c r="F77">
-        <v>0.2031099745521388</v>
-      </c>
-    </row>
-    <row r="78" spans="1:6">
+        <v>0.163444136502808</v>
+      </c>
+      <c r="G77">
+        <v>0.2316777342150993</v>
+      </c>
+      <c r="H77">
+        <v>-0.00633741517764793</v>
+      </c>
+      <c r="I77">
+        <v>0.2352887698348272</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9">
       <c r="A78" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B78">
-        <v>-0.08475911308744451</v>
+        <v>0.06394261033742041</v>
       </c>
       <c r="C78">
-        <v>-0.02927036777680699</v>
+        <v>-0.04096226051869149</v>
       </c>
       <c r="D78">
-        <v>-0.08142101815875095</v>
+        <v>0.05755559650408401</v>
       </c>
       <c r="E78">
-        <v>-0.02176744499070129</v>
+        <v>0.01689452541518294</v>
       </c>
       <c r="F78">
-        <v>0.05100948225172583</v>
-      </c>
-    </row>
-    <row r="79" spans="1:6">
+        <v>0.07695072914591487</v>
+      </c>
+      <c r="G78">
+        <v>0.02416765614872095</v>
+      </c>
+      <c r="H78">
+        <v>0.02766665611183666</v>
+      </c>
+      <c r="I78">
+        <v>0.03623355228194033</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9">
       <c r="A79" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="B79">
         <v>0</v>
@@ -2277,50 +2988,77 @@
       <c r="F79">
         <v>0</v>
       </c>
-    </row>
-    <row r="80" spans="1:6">
+      <c r="G79">
+        <v>0</v>
+      </c>
+      <c r="H79">
+        <v>0</v>
+      </c>
+      <c r="I79">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9">
       <c r="A80" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="B80">
-        <v>-0.1244932381315761</v>
+        <v>0.1435508912028727</v>
       </c>
       <c r="C80">
-        <v>-0.09858770463110682</v>
+        <v>-0.7842288319206578</v>
       </c>
       <c r="D80">
-        <v>0.2892008345518802</v>
+        <v>-0.5788841034624522</v>
       </c>
       <c r="E80">
-        <v>-0.9199269882529809</v>
+        <v>-0.04143178504804599</v>
       </c>
       <c r="F80">
-        <v>0.05680094441565758</v>
-      </c>
-    </row>
-    <row r="81" spans="1:6">
+        <v>0.06940463012890588</v>
+      </c>
+      <c r="G80">
+        <v>-0.05608606124840722</v>
+      </c>
+      <c r="H80">
+        <v>0.03256332868392769</v>
+      </c>
+      <c r="I80">
+        <v>-0.08723058638878112</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9">
       <c r="A81" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B81">
-        <v>-0.1614086761328815</v>
+        <v>0.1802414777997777</v>
       </c>
       <c r="C81">
-        <v>0.05414874837504839</v>
+        <v>-0.02207645022401987</v>
       </c>
       <c r="D81">
-        <v>-0.05514650580094573</v>
+        <v>0.03637370695026696</v>
       </c>
       <c r="E81">
-        <v>-0.01851607382173347</v>
+        <v>0.1070377920173581</v>
       </c>
       <c r="F81">
-        <v>-0.1641587114994684</v>
-      </c>
-    </row>
-    <row r="82" spans="1:6">
+        <v>-0.1486876287131579</v>
+      </c>
+      <c r="G81">
+        <v>0.04561013667546893</v>
+      </c>
+      <c r="H81">
+        <v>-0.03211160368327488</v>
+      </c>
+      <c r="I81">
+        <v>0.00401171448429339</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9">
       <c r="A82" s="1" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="B82">
         <v>0</v>
@@ -2337,30 +3075,48 @@
       <c r="F82">
         <v>0</v>
       </c>
-    </row>
-    <row r="83" spans="1:6">
+      <c r="G82">
+        <v>0</v>
+      </c>
+      <c r="H82">
+        <v>0</v>
+      </c>
+      <c r="I82">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9">
       <c r="A83" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="B83">
-        <v>-0.0650120697186083</v>
+        <v>0.05400287345335605</v>
       </c>
       <c r="C83">
-        <v>-0.05826176596014552</v>
+        <v>-0.01979182967327714</v>
       </c>
       <c r="D83">
-        <v>-0.06647371990143158</v>
+        <v>0.04843544590742813</v>
       </c>
       <c r="E83">
-        <v>0.007443689358354024</v>
+        <v>-0.02161544134598886</v>
       </c>
       <c r="F83">
-        <v>0.0300140674825983</v>
-      </c>
-    </row>
-    <row r="84" spans="1:6">
+        <v>0.04697038776839876</v>
+      </c>
+      <c r="G83">
+        <v>0.02486924281092528</v>
+      </c>
+      <c r="H83">
+        <v>0.04674793390216488</v>
+      </c>
+      <c r="I83">
+        <v>0.04369572514764841</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9">
       <c r="A84" s="1" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B84">
         <v>0</v>
@@ -2377,230 +3133,338 @@
       <c r="F84">
         <v>0</v>
       </c>
-    </row>
-    <row r="85" spans="1:6">
+      <c r="G84">
+        <v>0</v>
+      </c>
+      <c r="H84">
+        <v>0</v>
+      </c>
+      <c r="I84">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9">
       <c r="A85" s="1" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="B85">
-        <v>-0.2237599362734171</v>
+        <v>0.239308583554745</v>
       </c>
       <c r="C85">
-        <v>0.03823763922542033</v>
+        <v>-0.03985856389554383</v>
       </c>
       <c r="D85">
-        <v>-0.08120950944090601</v>
+        <v>0.07298615272492086</v>
       </c>
       <c r="E85">
-        <v>-0.04652157498076968</v>
+        <v>0.114695662221299</v>
       </c>
       <c r="F85">
-        <v>-0.1754193733223751</v>
-      </c>
-    </row>
-    <row r="86" spans="1:6">
+        <v>-0.190913092534186</v>
+      </c>
+      <c r="G85">
+        <v>0.04507151293344337</v>
+      </c>
+      <c r="H85">
+        <v>-0.009976774167500637</v>
+      </c>
+      <c r="I85">
+        <v>0.02694562935426471</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9">
       <c r="A86" s="1" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
       <c r="B86">
-        <v>-0.02747549310705678</v>
+        <v>0.02176163962809318</v>
       </c>
       <c r="C86">
-        <v>-0.01249631527773483</v>
+        <v>-0.02286484165878886</v>
       </c>
       <c r="D86">
-        <v>-0.06485334090135053</v>
+        <v>0.03954046797615093</v>
       </c>
       <c r="E86">
-        <v>-0.001997531047164845</v>
+        <v>0.01352358144861051</v>
       </c>
       <c r="F86">
-        <v>0.08618337845272331</v>
-      </c>
-    </row>
-    <row r="87" spans="1:6">
+        <v>0.08674894611152355</v>
+      </c>
+      <c r="G86">
+        <v>0.05704041484729482</v>
+      </c>
+      <c r="H86">
+        <v>0.01387849678906218</v>
+      </c>
+      <c r="I86">
+        <v>0.06579377038230337</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9">
       <c r="A87" s="1" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B87">
-        <v>-0.01830206693249026</v>
+        <v>0.02605870002614645</v>
       </c>
       <c r="C87">
-        <v>0.02310144344860303</v>
+        <v>0.002084021691595873</v>
       </c>
       <c r="D87">
-        <v>0.03810874439095715</v>
+        <v>-0.006802227973250225</v>
       </c>
       <c r="E87">
-        <v>0.01196712103449759</v>
+        <v>-0.006603402846842121</v>
       </c>
       <c r="F87">
-        <v>0.1019739385156745</v>
-      </c>
-    </row>
-    <row r="88" spans="1:6">
+        <v>0.1072583914412693</v>
+      </c>
+      <c r="G87">
+        <v>0.01145153068078418</v>
+      </c>
+      <c r="H87">
+        <v>-0.01124790340221757</v>
+      </c>
+      <c r="I87">
+        <v>0.04965604329029474</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9">
       <c r="A88" s="1" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="B88">
-        <v>-0.01979857464122652</v>
+        <v>0.03227736404627186</v>
       </c>
       <c r="C88">
-        <v>0.007808706947740607</v>
+        <v>-0.001925384035026004</v>
       </c>
       <c r="D88">
-        <v>-0.002021849228790848</v>
+        <v>-0.003714992149401296</v>
       </c>
       <c r="E88">
-        <v>-0.01933161392659806</v>
+        <v>0.008560757886670566</v>
       </c>
       <c r="F88">
-        <v>-0.008424208858558315</v>
-      </c>
-    </row>
-    <row r="89" spans="1:6">
+        <v>-0.005433432150933176</v>
+      </c>
+      <c r="G88">
+        <v>-0.006140286605646664</v>
+      </c>
+      <c r="H88">
+        <v>0.05439219658485368</v>
+      </c>
+      <c r="I88">
+        <v>0.002209891403619452</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9">
       <c r="A89" s="1" t="s">
-        <v>92</v>
+        <v>95</v>
       </c>
       <c r="B89">
-        <v>-0.1033687708646244</v>
+        <v>0.1340984324673457</v>
       </c>
       <c r="C89">
-        <v>0.1356057038986547</v>
+        <v>0.2537561471561745</v>
       </c>
       <c r="D89">
-        <v>0.3131180557311143</v>
+        <v>-0.2813443719063847</v>
       </c>
       <c r="E89">
-        <v>0.1251810946769817</v>
+        <v>-0.08462836131708491</v>
       </c>
       <c r="F89">
-        <v>0.03546440321442387</v>
-      </c>
-    </row>
-    <row r="90" spans="1:6">
+        <v>0.02236162488656001</v>
+      </c>
+      <c r="G89">
+        <v>0.09838263782086823</v>
+      </c>
+      <c r="H89">
+        <v>0.03096159204645544</v>
+      </c>
+      <c r="I89">
+        <v>0.05790343675604365</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9">
       <c r="A90" s="1" t="s">
-        <v>93</v>
+        <v>96</v>
       </c>
       <c r="B90">
-        <v>-0.08477429922397027</v>
+        <v>0.09263971375804832</v>
       </c>
       <c r="C90">
-        <v>0.1234046330883495</v>
+        <v>0.2028976185615076</v>
       </c>
       <c r="D90">
-        <v>0.2848080841232499</v>
+        <v>-0.2531988958299413</v>
       </c>
       <c r="E90">
-        <v>0.05930074021459922</v>
+        <v>-0.07303092317043923</v>
       </c>
       <c r="F90">
-        <v>0.04296906413146288</v>
-      </c>
-    </row>
-    <row r="91" spans="1:6">
+        <v>-0.002680524786254639</v>
+      </c>
+      <c r="G90">
+        <v>0.08739774466123035</v>
+      </c>
+      <c r="H90">
+        <v>0.01929762933862873</v>
+      </c>
+      <c r="I90">
+        <v>0.0194350722718369</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9">
       <c r="A91" s="1" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="B91">
-        <v>-0.2801661705186503</v>
+        <v>0.2803976433375957</v>
       </c>
       <c r="C91">
-        <v>0.04473394716581777</v>
+        <v>-0.05056735917608049</v>
       </c>
       <c r="D91">
-        <v>-0.1197858670514976</v>
+        <v>0.09400362329905147</v>
       </c>
       <c r="E91">
-        <v>-0.04766429008805547</v>
+        <v>0.1275487955556825</v>
       </c>
       <c r="F91">
-        <v>-0.267570045313635</v>
-      </c>
-    </row>
-    <row r="92" spans="1:6">
+        <v>-0.2651191905201372</v>
+      </c>
+      <c r="G91">
+        <v>0.05900282163711636</v>
+      </c>
+      <c r="H91">
+        <v>-0.05987021733166808</v>
+      </c>
+      <c r="I91">
+        <v>0.03600531031579515</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9">
       <c r="A92" s="1" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B92">
-        <v>-0.1087395301716599</v>
+        <v>0.1676548401765318</v>
       </c>
       <c r="C92">
-        <v>0.08721555100938015</v>
+        <v>0.2038038888932019</v>
       </c>
       <c r="D92">
-        <v>0.3483465456290918</v>
+        <v>-0.2863168373950612</v>
       </c>
       <c r="E92">
-        <v>0.0534478195727621</v>
+        <v>-0.1068817073572043</v>
       </c>
       <c r="F92">
-        <v>-0.05561605593637731</v>
-      </c>
-    </row>
-    <row r="93" spans="1:6">
+        <v>-0.11303901996368</v>
+      </c>
+      <c r="G92">
+        <v>0.2290017600418692</v>
+      </c>
+      <c r="H92">
+        <v>0.07903116618755347</v>
+      </c>
+      <c r="I92">
+        <v>-0.06504343094234995</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9">
       <c r="A93" s="1" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="B93">
-        <v>-0.08686859856252525</v>
+        <v>0.1163397534324576</v>
       </c>
       <c r="C93">
-        <v>0.1395807448613838</v>
+        <v>0.252875309307081</v>
       </c>
       <c r="D93">
-        <v>0.359742403403506</v>
+        <v>-0.3001311337110807</v>
       </c>
       <c r="E93">
-        <v>0.09205947534923052</v>
+        <v>-0.1156255189917523</v>
       </c>
       <c r="F93">
-        <v>-0.02566405521982842</v>
-      </c>
-    </row>
-    <row r="94" spans="1:6">
+        <v>-0.03520632279043599</v>
+      </c>
+      <c r="G93">
+        <v>0.02671376088359011</v>
+      </c>
+      <c r="H93">
+        <v>0.05279493792332871</v>
+      </c>
+      <c r="I93">
+        <v>-0.02621695925991295</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9">
       <c r="A94" s="1" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="B94">
-        <v>-0.2710696459648415</v>
+        <v>0.3002146813112356</v>
       </c>
       <c r="C94">
-        <v>0.0907769671425054</v>
+        <v>0.01796293643860629</v>
       </c>
       <c r="D94">
-        <v>0.007113842793791489</v>
+        <v>0.03008715593743314</v>
       </c>
       <c r="E94">
-        <v>-0.01046348576910878</v>
+        <v>0.1318965947074785</v>
       </c>
       <c r="F94">
-        <v>-0.2335766444744515</v>
-      </c>
-    </row>
-    <row r="95" spans="1:6">
+        <v>-0.2700318172904009</v>
+      </c>
+      <c r="G94">
+        <v>0.09815094262455598</v>
+      </c>
+      <c r="H94">
+        <v>-0.1949413133721692</v>
+      </c>
+      <c r="I94">
+        <v>0.02123203433457658</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9">
       <c r="A95" s="1" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="B95">
-        <v>-0.1592411771779536</v>
+        <v>0.1316452386397958</v>
       </c>
       <c r="C95">
-        <v>-0.02154337580643795</v>
+        <v>0.02132656026963974</v>
       </c>
       <c r="D95">
-        <v>-0.1490118128988828</v>
+        <v>0.1179115624076274</v>
       </c>
       <c r="E95">
-        <v>0.04142343807330864</v>
+        <v>0.03529097231935371</v>
       </c>
       <c r="F95">
-        <v>-0.4336757834187167</v>
-      </c>
-    </row>
-    <row r="96" spans="1:6">
+        <v>-0.07393650376179163</v>
+      </c>
+      <c r="G95">
+        <v>-0.1156476816422686</v>
+      </c>
+      <c r="H95">
+        <v>0.8868780212505136</v>
+      </c>
+      <c r="I95">
+        <v>-0.2850763331641138</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9">
       <c r="A96" s="1" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="B96">
         <v>0</v>
@@ -2617,10 +3481,19 @@
       <c r="F96">
         <v>0</v>
       </c>
-    </row>
-    <row r="97" spans="1:6">
+      <c r="G96">
+        <v>0</v>
+      </c>
+      <c r="H96">
+        <v>0</v>
+      </c>
+      <c r="I96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9">
       <c r="A97" s="1" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="B97">
         <v>0</v>
@@ -2637,30 +3510,48 @@
       <c r="F97">
         <v>0</v>
       </c>
-    </row>
-    <row r="98" spans="1:6">
+      <c r="G97">
+        <v>0</v>
+      </c>
+      <c r="H97">
+        <v>0</v>
+      </c>
+      <c r="I97">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9">
       <c r="A98" s="1" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="B98">
-        <v>-0.2124336143108839</v>
+        <v>0.2218292228592352</v>
       </c>
       <c r="C98">
-        <v>0.04094765790851651</v>
+        <v>0.08352275973172558</v>
       </c>
       <c r="D98">
-        <v>0.04083798796325489</v>
+        <v>-0.0005973297381740524</v>
       </c>
       <c r="E98">
-        <v>0.09207984852177677</v>
+        <v>-0.02492215818057157</v>
       </c>
       <c r="F98">
-        <v>0.05118227049088709</v>
-      </c>
-    </row>
-    <row r="99" spans="1:6">
+        <v>0.1659670725748941</v>
+      </c>
+      <c r="G98">
+        <v>-0.3803964250459244</v>
+      </c>
+      <c r="H98">
+        <v>-0.0693302819110409</v>
+      </c>
+      <c r="I98">
+        <v>-0.03936130653732186</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9">
       <c r="A99" s="1" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="B99">
         <v>0</v>
@@ -2677,10 +3568,19 @@
       <c r="F99">
         <v>0</v>
       </c>
-    </row>
-    <row r="100" spans="1:6">
+      <c r="G99">
+        <v>0</v>
+      </c>
+      <c r="H99">
+        <v>0</v>
+      </c>
+      <c r="I99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9">
       <c r="A100" s="1" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="B100">
         <v>0</v>
@@ -2697,70 +3597,106 @@
       <c r="F100">
         <v>0</v>
       </c>
-    </row>
-    <row r="101" spans="1:6">
+      <c r="G100">
+        <v>0</v>
+      </c>
+      <c r="H100">
+        <v>0</v>
+      </c>
+      <c r="I100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9">
       <c r="A101" s="1" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="B101">
-        <v>-0.006519176487510947</v>
+        <v>0.01515121828064375</v>
       </c>
       <c r="C101">
-        <v>0.02001524475070827</v>
+        <v>-0.01946167845796687</v>
       </c>
       <c r="D101">
-        <v>-0.06598987061997483</v>
+        <v>0.0223579340175534</v>
       </c>
       <c r="E101">
-        <v>-0.0241561161225652</v>
+        <v>0.03691977721077688</v>
       </c>
       <c r="F101">
-        <v>0.03138905502811021</v>
-      </c>
-    </row>
-    <row r="102" spans="1:6">
+        <v>0.0775449945822056</v>
+      </c>
+      <c r="G101">
+        <v>0.1072531660060859</v>
+      </c>
+      <c r="H101">
+        <v>0.006638804400541149</v>
+      </c>
+      <c r="I101">
+        <v>-0.1251272234175846</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9">
       <c r="A102" s="1" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="B102">
-        <v>-0.09542972032178591</v>
+        <v>0.1134018251830213</v>
       </c>
       <c r="C102">
-        <v>0.02684123582571232</v>
+        <v>-0.02554957435366622</v>
       </c>
       <c r="D102">
-        <v>-0.05146639295238896</v>
+        <v>0.02917401806506447</v>
       </c>
       <c r="E102">
-        <v>-0.03536344891342937</v>
+        <v>0.06069498237585686</v>
       </c>
       <c r="F102">
-        <v>-0.08888290931037272</v>
-      </c>
-    </row>
-    <row r="103" spans="1:6">
+        <v>-0.1072644351920385</v>
+      </c>
+      <c r="G102">
+        <v>0.02255519756491752</v>
+      </c>
+      <c r="H102">
+        <v>-0.00663271475153184</v>
+      </c>
+      <c r="I102">
+        <v>0.03655837322002604</v>
+      </c>
+    </row>
+    <row r="103" spans="1:9">
       <c r="A103" s="1" t="s">
-        <v>106</v>
+        <v>109</v>
       </c>
       <c r="B103">
-        <v>-0.02101062468046553</v>
+        <v>0.02708459981364437</v>
       </c>
       <c r="C103">
-        <v>0.0121530584005046</v>
+        <v>-0.01456092266048853</v>
       </c>
       <c r="D103">
-        <v>-0.0172837209584684</v>
+        <v>0.005178458356647386</v>
       </c>
       <c r="E103">
-        <v>-0.009403555809806773</v>
+        <v>0.02120430724512072</v>
       </c>
       <c r="F103">
-        <v>-0.02358499582103088</v>
-      </c>
-    </row>
-    <row r="104" spans="1:6">
+        <v>-0.01959090523483472</v>
+      </c>
+      <c r="G103">
+        <v>0.01722596667465361</v>
+      </c>
+      <c r="H103">
+        <v>0.008657531973461951</v>
+      </c>
+      <c r="I103">
+        <v>0.01647764628009391</v>
+      </c>
+    </row>
+    <row r="104" spans="1:9">
       <c r="A104" s="1" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -2775,6 +3711,15 @@
         <v>0</v>
       </c>
       <c r="F104">
+        <v>0</v>
+      </c>
+      <c r="G104">
+        <v>0</v>
+      </c>
+      <c r="H104">
+        <v>0</v>
+      </c>
+      <c r="I104">
         <v>0</v>
       </c>
     </row>
